--- a/biology/Zoologie/Conus_distans/Conus_distans.xlsx
+++ b/biology/Zoologie/Conus_distans/Conus_distans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus distans est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La longueur de la coquille varie entre 30 mm et 137 mm.
-La coquille, de couleur fauve jaunâtre, présente des bandes blanches obsolètes dans la partie centrale et supérieure, parfois les bandes ne sont pas continues, mais consistent en des marques obliques irrégulières. Le verticille est entouré de lignes imprimées obsolètes. Il est taché de violet-châtaigne vers la base. La spire basse est convexe, avec des tubercules arrondis plutôt obtus. L'intérieur blanc est taché de violet clair[1]. 
+La coquille, de couleur fauve jaunâtre, présente des bandes blanches obsolètes dans la partie centrale et supérieure, parfois les bandes ne sont pas continues, mais consistent en des marques obliques irrégulières. Le verticille est entouré de lignes imprimées obsolètes. Il est taché de violet-châtaigne vers la base. La spire basse est convexe, avec des tubercules arrondis plutôt obtus. L'intérieur blanc est taché de violet clair. 
 </t>
         </is>
       </c>
@@ -544,11 +558,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente dans la mer Rouge, dans le Pacifique tropical Indo-Ouest et au large de la Papouasie-Nouvelle-Guinée et de l'Australie (le Territoire du Nord, le Queensland et l'Australie-Occidentale).
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve dans tout l'Indo-Pacifique, à l'exception de l'Inde et de la mer d'Arabie. Il s'agit d'une espèce à large répartition et elle est commune dans toute son aire de répartition. Il n'y a pas de menaces majeures connues, elle est donc classée dans la catégorie préoccupation mineure[2].
 </t>
         </is>
       </c>
@@ -574,24 +588,135 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve dans tout l'Indo-Pacifique, à l'exception de l'Inde et de la mer d'Arabie. Il s'agit d'une espèce à large répartition et elle est commune dans toute son aire de répartition. Il n'y a pas de menaces majeures connues, elle est donc classée dans la catégorie préoccupation mineure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_distans</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_distans</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus distans a été décrite pour la première fois en 1792 par le conchyliologiste danois Christian Hee Hwass (1731-1803) dans la publication intitulée « Encyclopédie méthodique ou par ordre de matières Histoire naturelle des vers - volume 1 » écrite par le naturaliste français Jean-Guillaume Bruguière (1750-1798)[3],[4].
-Synonymes
-Conus (Fraterconus) distans Hwass, 1792 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus distans a été décrite pour la première fois en 1792 par le conchyliologiste danois Christian Hee Hwass (1731-1803) dans la publication intitulée « Encyclopédie méthodique ou par ordre de matières Histoire naturelle des vers - volume 1 » écrite par le naturaliste français Jean-Guillaume Bruguière (1750-1798),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_distans</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_distans</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Fraterconus) distans Hwass, 1792 · appellation alternative
 Conus (Rhizoconus) chinoi Shikama, 1970 · non accepté
 Conus chinoi Shikama, 1970 · non accepté
 Conus kenyonae Brazier, 1896 · non accepté
 Conus kenyonae var. arrowsmithensis Brazier, 1896 · non accepté
 Conus waterhouseae Brazier, 1896 · non accepté
 Fraterconus distans (Hwass, 1792) · non accepté
-Rhombiconus distans (Hwass, 1792) · non accepté
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus distans dans les principales bases sont les suivants :
+Rhombiconus distans (Hwass, 1792) · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conus_distans</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_distans</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus distans dans les principales bases sont les suivants :
 AFD : Conus_(Fraterconus)_distans - BOLD : 85039 - CoL : 5ZXPX - GBIF : 5728218 - iNaturalist : 431942 - IRMNG : 10534578 - NCBI : 527121 - TAXREF : 91938 - UICN : 192305 - WoRMS : 215530 - ZOBODAT : 120326 
 </t>
         </is>
